--- a/data/Instances/InstancesS/outputS-6.xlsx
+++ b/data/Instances/InstancesS/outputS-6.xlsx
@@ -438,54 +438,54 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
           <t>13</t>
@@ -498,209 +498,209 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>16</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>19</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>38</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>39</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>46</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>47</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>48</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>52</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>53</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>57</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>59</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>60</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>61</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>63</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -712,9 +712,7 @@
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
-        <v>1</v>
-      </c>
+      <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
@@ -725,9 +723,7 @@
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="n">
         <v>1</v>
@@ -740,9 +736,7 @@
       <c r="AL2" t="inlineStr"/>
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr"/>
-      <c r="AO2" t="n">
-        <v>1</v>
-      </c>
+      <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="inlineStr"/>
       <c r="AQ2" t="inlineStr"/>
       <c r="AR2" t="inlineStr"/>
@@ -750,23 +744,23 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AU2" t="inlineStr"/>
       <c r="AV2" t="inlineStr"/>
-      <c r="AW2" t="n">
-        <v>1</v>
-      </c>
+      <c r="AW2" t="inlineStr"/>
       <c r="AX2" t="inlineStr"/>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -793,14 +787,14 @@
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
+      <c r="AG3" t="n">
+        <v>1</v>
+      </c>
       <c r="AH3" t="inlineStr"/>
       <c r="AI3" t="inlineStr"/>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="n">
-        <v>1</v>
-      </c>
+      <c r="AL3" t="inlineStr"/>
       <c r="AM3" t="inlineStr"/>
       <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr"/>
@@ -818,7 +812,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -826,7 +820,9 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -842,7 +838,9 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+      <c r="W4" t="n">
+        <v>1</v>
+      </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
@@ -852,7 +850,9 @@
       <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
+      <c r="AG4" t="n">
+        <v>1</v>
+      </c>
       <c r="AH4" t="inlineStr"/>
       <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="inlineStr"/>
@@ -875,14 +875,16 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
@@ -905,32 +907,32 @@
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
+      <c r="AC5" t="n">
+        <v>1</v>
+      </c>
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr"/>
+      <c r="AG5" t="n">
+        <v>1</v>
+      </c>
       <c r="AH5" t="inlineStr"/>
       <c r="AI5" t="inlineStr"/>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
-      <c r="AL5" t="n">
-        <v>1</v>
-      </c>
+      <c r="AL5" t="inlineStr"/>
       <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="inlineStr"/>
       <c r="AO5" t="inlineStr"/>
-      <c r="AP5" t="n">
-        <v>1</v>
-      </c>
+      <c r="AP5" t="inlineStr"/>
       <c r="AQ5" t="inlineStr"/>
       <c r="AR5" t="inlineStr"/>
-      <c r="AS5" t="inlineStr"/>
+      <c r="AS5" t="n">
+        <v>1</v>
+      </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AU5" t="inlineStr"/>
-      <c r="AV5" t="n">
-        <v>1</v>
-      </c>
+      <c r="AV5" t="inlineStr"/>
       <c r="AW5" t="inlineStr"/>
       <c r="AX5" t="inlineStr"/>
       <c r="AY5" t="inlineStr"/>
@@ -938,13 +940,11 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
@@ -960,9 +960,7 @@
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
-        <v>1</v>
-      </c>
+      <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
@@ -992,23 +990,23 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AU6" t="inlineStr"/>
       <c r="AV6" t="inlineStr"/>
-      <c r="AW6" t="n">
-        <v>1</v>
-      </c>
+      <c r="AW6" t="inlineStr"/>
       <c r="AX6" t="inlineStr"/>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
@@ -1040,16 +1038,16 @@
       <c r="AI7" t="inlineStr"/>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
-      <c r="AL7" t="n">
-        <v>1</v>
-      </c>
+      <c r="AL7" t="inlineStr"/>
       <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr"/>
       <c r="AP7" t="inlineStr"/>
       <c r="AQ7" t="inlineStr"/>
       <c r="AR7" t="inlineStr"/>
-      <c r="AS7" t="inlineStr"/>
+      <c r="AS7" t="n">
+        <v>1</v>
+      </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AU7" t="inlineStr"/>
       <c r="AV7" t="inlineStr"/>
@@ -1060,70 +1058,112 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
       <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1</v>
+      </c>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
+      <c r="AA8" t="n">
+        <v>1</v>
+      </c>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr"/>
-      <c r="AH8" t="inlineStr"/>
+      <c r="AF8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1</v>
+      </c>
       <c r="AI8" t="inlineStr"/>
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
-      <c r="AL8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM8" t="inlineStr"/>
-      <c r="AN8" t="inlineStr"/>
-      <c r="AO8" t="inlineStr"/>
-      <c r="AP8" t="inlineStr"/>
-      <c r="AQ8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>1</v>
+      </c>
       <c r="AR8" t="n">
         <v>1</v>
       </c>
       <c r="AS8" t="inlineStr"/>
-      <c r="AT8" t="inlineStr"/>
+      <c r="AT8" t="n">
+        <v>1</v>
+      </c>
       <c r="AU8" t="inlineStr"/>
-      <c r="AV8" t="n">
-        <v>1</v>
-      </c>
+      <c r="AV8" t="inlineStr"/>
       <c r="AW8" t="inlineStr"/>
-      <c r="AX8" t="inlineStr"/>
+      <c r="AX8" t="n">
+        <v>1</v>
+      </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -1131,7 +1171,9 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -1139,7 +1181,9 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
@@ -1158,15 +1202,17 @@
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr"/>
+      <c r="AF9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>1</v>
+      </c>
       <c r="AH9" t="inlineStr"/>
       <c r="AI9" t="inlineStr"/>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
-      <c r="AL9" t="n">
-        <v>1</v>
-      </c>
+      <c r="AL9" t="inlineStr"/>
       <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="inlineStr"/>
       <c r="AO9" t="inlineStr"/>
@@ -1176,9 +1222,7 @@
       <c r="AS9" t="inlineStr"/>
       <c r="AT9" t="inlineStr"/>
       <c r="AU9" t="inlineStr"/>
-      <c r="AV9" t="n">
-        <v>1</v>
-      </c>
+      <c r="AV9" t="inlineStr"/>
       <c r="AW9" t="inlineStr"/>
       <c r="AX9" t="inlineStr"/>
       <c r="AY9" t="inlineStr"/>
@@ -1186,79 +1230,125 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
       <c r="C10" t="n">
         <v>1</v>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
+      <c r="T10" t="n">
+        <v>1</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1</v>
+      </c>
       <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
+      <c r="Y10" t="n">
+        <v>1</v>
+      </c>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
+      <c r="AE10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>1</v>
+      </c>
       <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr"/>
+      <c r="AH10" t="n">
+        <v>1</v>
+      </c>
       <c r="AI10" t="inlineStr"/>
       <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
+      <c r="AK10" t="n">
+        <v>1</v>
+      </c>
       <c r="AL10" t="inlineStr"/>
-      <c r="AM10" t="inlineStr"/>
+      <c r="AM10" t="n">
+        <v>1</v>
+      </c>
       <c r="AN10" t="inlineStr"/>
-      <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr"/>
-      <c r="AQ10" t="inlineStr"/>
-      <c r="AR10" t="inlineStr"/>
-      <c r="AS10" t="inlineStr"/>
+      <c r="AO10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>1</v>
+      </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AU10" t="inlineStr"/>
       <c r="AV10" t="inlineStr"/>
-      <c r="AW10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr"/>
+      <c r="AX10" t="n">
+        <v>1</v>
+      </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
@@ -1281,7 +1371,9 @@
       <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
+      <c r="AG11" t="n">
+        <v>1</v>
+      </c>
       <c r="AH11" t="inlineStr"/>
       <c r="AI11" t="inlineStr"/>
       <c r="AJ11" t="inlineStr"/>
@@ -1293,7 +1385,9 @@
       <c r="AP11" t="inlineStr"/>
       <c r="AQ11" t="inlineStr"/>
       <c r="AR11" t="inlineStr"/>
-      <c r="AS11" t="inlineStr"/>
+      <c r="AS11" t="n">
+        <v>1</v>
+      </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AU11" t="inlineStr"/>
       <c r="AV11" t="inlineStr"/>
@@ -1307,63 +1401,109 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>1</v>
+      </c>
       <c r="S12" t="n">
         <v>1</v>
       </c>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
+      <c r="T12" t="n">
+        <v>1</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1</v>
+      </c>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
+      <c r="Z12" t="n">
+        <v>1</v>
+      </c>
       <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="inlineStr"/>
-      <c r="AH12" t="inlineStr"/>
-      <c r="AI12" t="inlineStr"/>
+      <c r="AF12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="inlineStr"/>
       <c r="AL12" t="inlineStr"/>
-      <c r="AM12" t="inlineStr"/>
-      <c r="AN12" t="inlineStr"/>
-      <c r="AO12" t="inlineStr"/>
-      <c r="AP12" t="inlineStr"/>
-      <c r="AQ12" t="inlineStr"/>
-      <c r="AR12" t="inlineStr"/>
-      <c r="AS12" t="inlineStr"/>
-      <c r="AT12" t="inlineStr"/>
+      <c r="AM12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>1</v>
+      </c>
       <c r="AU12" t="inlineStr"/>
       <c r="AV12" t="inlineStr"/>
-      <c r="AW12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr"/>
+      <c r="AX12" t="n">
+        <v>1</v>
+      </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -1373,16 +1513,18 @@
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
@@ -1391,9 +1533,7 @@
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
-        <v>1</v>
-      </c>
+      <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
@@ -1407,7 +1547,9 @@
       <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="inlineStr"/>
-      <c r="AG13" t="inlineStr"/>
+      <c r="AG13" t="n">
+        <v>1</v>
+      </c>
       <c r="AH13" t="inlineStr"/>
       <c r="AI13" t="inlineStr"/>
       <c r="AJ13" t="inlineStr"/>
@@ -1415,110 +1557,154 @@
       <c r="AL13" t="inlineStr"/>
       <c r="AM13" t="inlineStr"/>
       <c r="AN13" t="inlineStr"/>
-      <c r="AO13" t="n">
-        <v>1</v>
-      </c>
+      <c r="AO13" t="inlineStr"/>
       <c r="AP13" t="inlineStr"/>
       <c r="AQ13" t="inlineStr"/>
       <c r="AR13" t="inlineStr"/>
-      <c r="AS13" t="inlineStr"/>
+      <c r="AS13" t="n">
+        <v>1</v>
+      </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AU13" t="inlineStr"/>
       <c r="AV13" t="inlineStr"/>
-      <c r="AW13" t="n">
-        <v>1</v>
-      </c>
+      <c r="AW13" t="inlineStr"/>
       <c r="AX13" t="inlineStr"/>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1</v>
+      </c>
       <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
+      <c r="X14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1</v>
+      </c>
       <c r="AA14" t="inlineStr"/>
       <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="inlineStr"/>
       <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="inlineStr"/>
+      <c r="AE14" t="n">
+        <v>1</v>
+      </c>
       <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="inlineStr"/>
-      <c r="AH14" t="inlineStr"/>
+      <c r="AG14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>1</v>
+      </c>
       <c r="AI14" t="inlineStr"/>
       <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
-      <c r="AL14" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL14" t="inlineStr"/>
       <c r="AM14" t="inlineStr"/>
       <c r="AN14" t="inlineStr"/>
-      <c r="AO14" t="inlineStr"/>
+      <c r="AO14" t="n">
+        <v>1</v>
+      </c>
       <c r="AP14" t="n">
         <v>1</v>
       </c>
-      <c r="AQ14" t="inlineStr"/>
+      <c r="AQ14" t="n">
+        <v>1</v>
+      </c>
       <c r="AR14" t="n">
         <v>1</v>
       </c>
-      <c r="AS14" t="inlineStr"/>
+      <c r="AS14" t="n">
+        <v>1</v>
+      </c>
       <c r="AT14" t="inlineStr"/>
-      <c r="AU14" t="inlineStr"/>
+      <c r="AU14" t="n">
+        <v>1</v>
+      </c>
       <c r="AV14" t="inlineStr"/>
       <c r="AW14" t="inlineStr"/>
-      <c r="AX14" t="inlineStr"/>
+      <c r="AX14" t="n">
+        <v>1</v>
+      </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
       <c r="D15" t="n">
         <v>1</v>
       </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1526,9 +1712,7 @@
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="n">
-        <v>1</v>
-      </c>
+      <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="n">
         <v>1</v>
@@ -1536,72 +1720,70 @@
       <c r="U15" t="n">
         <v>1</v>
       </c>
-      <c r="V15" t="inlineStr"/>
+      <c r="V15" t="n">
+        <v>1</v>
+      </c>
       <c r="W15" t="inlineStr"/>
-      <c r="X15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="n">
-        <v>1</v>
-      </c>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr"/>
       <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="n">
+        <v>1</v>
+      </c>
       <c r="AG15" t="n">
         <v>1</v>
       </c>
-      <c r="AH15" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH15" t="inlineStr"/>
       <c r="AI15" t="inlineStr"/>
-      <c r="AJ15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr"/>
       <c r="AM15" t="inlineStr"/>
       <c r="AN15" t="inlineStr"/>
       <c r="AO15" t="n">
         <v>1</v>
       </c>
-      <c r="AP15" t="inlineStr"/>
-      <c r="AQ15" t="inlineStr"/>
-      <c r="AR15" t="inlineStr"/>
-      <c r="AS15" t="inlineStr"/>
+      <c r="AP15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>1</v>
+      </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AU15" t="inlineStr"/>
-      <c r="AV15" t="n">
-        <v>1</v>
-      </c>
+      <c r="AV15" t="inlineStr"/>
       <c r="AW15" t="inlineStr"/>
-      <c r="AX15" t="inlineStr"/>
+      <c r="AX15" t="n">
+        <v>1</v>
+      </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
@@ -1614,9 +1796,7 @@
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
-        <v>1</v>
-      </c>
+      <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
@@ -1638,131 +1818,89 @@
       <c r="AL16" t="inlineStr"/>
       <c r="AM16" t="inlineStr"/>
       <c r="AN16" t="inlineStr"/>
-      <c r="AO16" t="n">
-        <v>1</v>
-      </c>
+      <c r="AO16" t="inlineStr"/>
       <c r="AP16" t="inlineStr"/>
       <c r="AQ16" t="inlineStr"/>
       <c r="AR16" t="inlineStr"/>
-      <c r="AS16" t="inlineStr"/>
+      <c r="AS16" t="n">
+        <v>1</v>
+      </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AU16" t="inlineStr"/>
       <c r="AV16" t="inlineStr"/>
-      <c r="AW16" t="n">
-        <v>1</v>
-      </c>
+      <c r="AW16" t="inlineStr"/>
       <c r="AX16" t="inlineStr"/>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1</v>
-      </c>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>1</v>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
+      <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
-      <c r="P17" t="n">
-        <v>1</v>
-      </c>
+      <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
-        <v>1</v>
-      </c>
+      <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
-      <c r="U17" t="n">
-        <v>1</v>
-      </c>
+      <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="n">
         <v>1</v>
       </c>
-      <c r="X17" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>1</v>
-      </c>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr"/>
-      <c r="AE17" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE17" t="inlineStr"/>
       <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="n">
         <v>1</v>
       </c>
-      <c r="AH17" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH17" t="inlineStr"/>
       <c r="AI17" t="inlineStr"/>
       <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="inlineStr"/>
       <c r="AM17" t="inlineStr"/>
       <c r="AN17" t="inlineStr"/>
-      <c r="AO17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>1</v>
-      </c>
+      <c r="AO17" t="inlineStr"/>
+      <c r="AP17" t="inlineStr"/>
       <c r="AQ17" t="inlineStr"/>
-      <c r="AR17" t="n">
-        <v>1</v>
-      </c>
+      <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="inlineStr"/>
       <c r="AT17" t="inlineStr"/>
       <c r="AU17" t="inlineStr"/>
       <c r="AV17" t="inlineStr"/>
-      <c r="AW17" t="n">
-        <v>1</v>
-      </c>
+      <c r="AW17" t="inlineStr"/>
       <c r="AX17" t="inlineStr"/>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -1770,7 +1908,9 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1778,7 +1918,9 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
+      <c r="O18" t="n">
+        <v>1</v>
+      </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
@@ -1786,9 +1928,7 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
-      <c r="W18" t="n">
-        <v>1</v>
-      </c>
+      <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr"/>
@@ -1798,22 +1938,20 @@
       <c r="AD18" t="inlineStr"/>
       <c r="AE18" t="inlineStr"/>
       <c r="AF18" t="inlineStr"/>
-      <c r="AG18" t="inlineStr"/>
+      <c r="AG18" t="n">
+        <v>1</v>
+      </c>
       <c r="AH18" t="inlineStr"/>
       <c r="AI18" t="inlineStr"/>
       <c r="AJ18" t="inlineStr"/>
       <c r="AK18" t="inlineStr"/>
-      <c r="AL18" t="n">
-        <v>1</v>
-      </c>
+      <c r="AL18" t="inlineStr"/>
       <c r="AM18" t="inlineStr"/>
       <c r="AN18" t="inlineStr"/>
       <c r="AO18" t="inlineStr"/>
       <c r="AP18" t="inlineStr"/>
       <c r="AQ18" t="inlineStr"/>
-      <c r="AR18" t="n">
-        <v>1</v>
-      </c>
+      <c r="AR18" t="inlineStr"/>
       <c r="AS18" t="inlineStr"/>
       <c r="AT18" t="inlineStr"/>
       <c r="AU18" t="inlineStr"/>
@@ -1825,14 +1963,16 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
@@ -1864,25 +2004,19 @@
       <c r="AI19" t="inlineStr"/>
       <c r="AJ19" t="inlineStr"/>
       <c r="AK19" t="inlineStr"/>
-      <c r="AL19" t="n">
-        <v>1</v>
-      </c>
+      <c r="AL19" t="inlineStr"/>
       <c r="AM19" t="inlineStr"/>
       <c r="AN19" t="inlineStr"/>
       <c r="AO19" t="inlineStr"/>
-      <c r="AP19" t="n">
-        <v>1</v>
-      </c>
+      <c r="AP19" t="inlineStr"/>
       <c r="AQ19" t="inlineStr"/>
-      <c r="AR19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS19" t="inlineStr"/>
+      <c r="AR19" t="inlineStr"/>
+      <c r="AS19" t="n">
+        <v>1</v>
+      </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AU19" t="inlineStr"/>
-      <c r="AV19" t="n">
-        <v>1</v>
-      </c>
+      <c r="AV19" t="inlineStr"/>
       <c r="AW19" t="inlineStr"/>
       <c r="AX19" t="inlineStr"/>
       <c r="AY19" t="inlineStr"/>
@@ -1890,18 +2024,22 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
@@ -1914,9 +2052,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
-      <c r="W20" t="n">
-        <v>1</v>
-      </c>
+      <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr"/>
@@ -1926,23 +2062,23 @@
       <c r="AD20" t="inlineStr"/>
       <c r="AE20" t="inlineStr"/>
       <c r="AF20" t="inlineStr"/>
-      <c r="AG20" t="inlineStr"/>
+      <c r="AG20" t="n">
+        <v>1</v>
+      </c>
       <c r="AH20" t="inlineStr"/>
       <c r="AI20" t="inlineStr"/>
       <c r="AJ20" t="inlineStr"/>
       <c r="AK20" t="inlineStr"/>
-      <c r="AL20" t="n">
-        <v>1</v>
-      </c>
+      <c r="AL20" t="inlineStr"/>
       <c r="AM20" t="inlineStr"/>
       <c r="AN20" t="inlineStr"/>
       <c r="AO20" t="inlineStr"/>
       <c r="AP20" t="inlineStr"/>
       <c r="AQ20" t="inlineStr"/>
-      <c r="AR20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS20" t="inlineStr"/>
+      <c r="AR20" t="inlineStr"/>
+      <c r="AS20" t="n">
+        <v>1</v>
+      </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AU20" t="inlineStr"/>
       <c r="AV20" t="inlineStr"/>
@@ -1953,14 +2089,16 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
@@ -1987,23 +2125,23 @@
       <c r="AD21" t="inlineStr"/>
       <c r="AE21" t="inlineStr"/>
       <c r="AF21" t="inlineStr"/>
-      <c r="AG21" t="inlineStr"/>
+      <c r="AG21" t="n">
+        <v>1</v>
+      </c>
       <c r="AH21" t="inlineStr"/>
       <c r="AI21" t="inlineStr"/>
       <c r="AJ21" t="inlineStr"/>
       <c r="AK21" t="inlineStr"/>
-      <c r="AL21" t="n">
-        <v>1</v>
-      </c>
+      <c r="AL21" t="inlineStr"/>
       <c r="AM21" t="inlineStr"/>
       <c r="AN21" t="inlineStr"/>
       <c r="AO21" t="inlineStr"/>
       <c r="AP21" t="inlineStr"/>
       <c r="AQ21" t="inlineStr"/>
-      <c r="AR21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS21" t="inlineStr"/>
+      <c r="AR21" t="inlineStr"/>
+      <c r="AS21" t="n">
+        <v>1</v>
+      </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AU21" t="inlineStr"/>
       <c r="AV21" t="inlineStr"/>
@@ -2014,180 +2152,190 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" t="n">
-        <v>1</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
-      <c r="P22" t="n">
-        <v>1</v>
-      </c>
+      <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
-        <v>1</v>
-      </c>
+      <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
-      <c r="U22" t="n">
-        <v>1</v>
-      </c>
+      <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
-      <c r="W22" t="n">
-        <v>1</v>
-      </c>
-      <c r="X22" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>1</v>
-      </c>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="inlineStr"/>
-      <c r="AB22" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB22" t="inlineStr"/>
       <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="inlineStr"/>
-      <c r="AE22" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE22" t="inlineStr"/>
       <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="n">
         <v>1</v>
       </c>
-      <c r="AH22" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH22" t="inlineStr"/>
       <c r="AI22" t="inlineStr"/>
-      <c r="AJ22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="inlineStr"/>
       <c r="AM22" t="inlineStr"/>
       <c r="AN22" t="inlineStr"/>
       <c r="AO22" t="inlineStr"/>
-      <c r="AP22" t="n">
-        <v>1</v>
-      </c>
+      <c r="AP22" t="inlineStr"/>
       <c r="AQ22" t="inlineStr"/>
       <c r="AR22" t="inlineStr"/>
-      <c r="AS22" t="inlineStr"/>
+      <c r="AS22" t="n">
+        <v>1</v>
+      </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AU22" t="inlineStr"/>
       <c r="AV22" t="inlineStr"/>
-      <c r="AW22" t="n">
-        <v>1</v>
-      </c>
+      <c r="AW22" t="inlineStr"/>
       <c r="AX22" t="inlineStr"/>
-      <c r="AY22" t="n">
-        <v>1</v>
-      </c>
+      <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
+      <c r="R23" t="n">
+        <v>1</v>
+      </c>
       <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
+      <c r="T23" t="n">
+        <v>1</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1</v>
+      </c>
       <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
+      <c r="X23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1</v>
+      </c>
       <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="inlineStr"/>
-      <c r="AE23" t="inlineStr"/>
+      <c r="AE23" t="n">
+        <v>1</v>
+      </c>
       <c r="AF23" t="inlineStr"/>
-      <c r="AG23" t="inlineStr"/>
-      <c r="AH23" t="inlineStr"/>
-      <c r="AI23" t="inlineStr"/>
+      <c r="AG23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ23" t="inlineStr"/>
       <c r="AK23" t="inlineStr"/>
-      <c r="AL23" t="inlineStr"/>
+      <c r="AL23" t="n">
+        <v>1</v>
+      </c>
       <c r="AM23" t="inlineStr"/>
       <c r="AN23" t="inlineStr"/>
-      <c r="AO23" t="inlineStr"/>
-      <c r="AP23" t="inlineStr"/>
+      <c r="AO23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ23" t="inlineStr"/>
-      <c r="AR23" t="inlineStr"/>
-      <c r="AS23" t="inlineStr"/>
+      <c r="AR23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1</v>
+      </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AU23" t="inlineStr"/>
       <c r="AV23" t="inlineStr"/>
       <c r="AW23" t="inlineStr"/>
-      <c r="AX23" t="inlineStr"/>
-      <c r="AY23" t="inlineStr"/>
+      <c r="AX23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>1</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
@@ -2196,9 +2344,7 @@
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
-        <v>1</v>
-      </c>
+      <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
@@ -2211,10 +2357,10 @@
       <c r="AC24" t="inlineStr"/>
       <c r="AD24" t="inlineStr"/>
       <c r="AE24" t="inlineStr"/>
-      <c r="AF24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="n">
+        <v>1</v>
+      </c>
       <c r="AH24" t="inlineStr"/>
       <c r="AI24" t="inlineStr"/>
       <c r="AJ24" t="inlineStr"/>
@@ -2222,33 +2368,33 @@
       <c r="AL24" t="inlineStr"/>
       <c r="AM24" t="inlineStr"/>
       <c r="AN24" t="inlineStr"/>
-      <c r="AO24" t="n">
-        <v>1</v>
-      </c>
+      <c r="AO24" t="inlineStr"/>
       <c r="AP24" t="inlineStr"/>
       <c r="AQ24" t="inlineStr"/>
       <c r="AR24" t="inlineStr"/>
-      <c r="AS24" t="inlineStr"/>
+      <c r="AS24" t="n">
+        <v>1</v>
+      </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AU24" t="inlineStr"/>
       <c r="AV24" t="inlineStr"/>
-      <c r="AW24" t="n">
-        <v>1</v>
-      </c>
+      <c r="AW24" t="inlineStr"/>
       <c r="AX24" t="inlineStr"/>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
@@ -2280,23 +2426,17 @@
       <c r="AI25" t="inlineStr"/>
       <c r="AJ25" t="inlineStr"/>
       <c r="AK25" t="inlineStr"/>
-      <c r="AL25" t="n">
-        <v>1</v>
-      </c>
+      <c r="AL25" t="inlineStr"/>
       <c r="AM25" t="inlineStr"/>
       <c r="AN25" t="inlineStr"/>
       <c r="AO25" t="inlineStr"/>
       <c r="AP25" t="inlineStr"/>
       <c r="AQ25" t="inlineStr"/>
-      <c r="AR25" t="n">
-        <v>1</v>
-      </c>
+      <c r="AR25" t="inlineStr"/>
       <c r="AS25" t="inlineStr"/>
       <c r="AT25" t="inlineStr"/>
       <c r="AU25" t="inlineStr"/>
-      <c r="AV25" t="n">
-        <v>1</v>
-      </c>
+      <c r="AV25" t="inlineStr"/>
       <c r="AW25" t="inlineStr"/>
       <c r="AX25" t="inlineStr"/>
       <c r="AY25" t="inlineStr"/>
@@ -2304,16 +2444,16 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
-      <c r="C26" t="n">
-        <v>1</v>
-      </c>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
@@ -2336,11 +2476,15 @@
       <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="inlineStr"/>
       <c r="AB26" t="inlineStr"/>
-      <c r="AC26" t="inlineStr"/>
+      <c r="AC26" t="n">
+        <v>1</v>
+      </c>
       <c r="AD26" t="inlineStr"/>
       <c r="AE26" t="inlineStr"/>
       <c r="AF26" t="inlineStr"/>
-      <c r="AG26" t="inlineStr"/>
+      <c r="AG26" t="n">
+        <v>1</v>
+      </c>
       <c r="AH26" t="inlineStr"/>
       <c r="AI26" t="inlineStr"/>
       <c r="AJ26" t="inlineStr"/>
@@ -2348,125 +2492,85 @@
       <c r="AL26" t="inlineStr"/>
       <c r="AM26" t="inlineStr"/>
       <c r="AN26" t="inlineStr"/>
-      <c r="AO26" t="n">
-        <v>1</v>
-      </c>
+      <c r="AO26" t="inlineStr"/>
       <c r="AP26" t="inlineStr"/>
       <c r="AQ26" t="inlineStr"/>
       <c r="AR26" t="inlineStr"/>
-      <c r="AS26" t="inlineStr"/>
+      <c r="AS26" t="n">
+        <v>1</v>
+      </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AU26" t="inlineStr"/>
       <c r="AV26" t="inlineStr"/>
-      <c r="AW26" t="n">
-        <v>1</v>
-      </c>
+      <c r="AW26" t="inlineStr"/>
       <c r="AX26" t="inlineStr"/>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>1</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
-      <c r="P27" t="n">
-        <v>1</v>
-      </c>
+      <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
-        <v>1</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1</v>
-      </c>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr"/>
-      <c r="X27" t="n">
-        <v>1</v>
-      </c>
+      <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="inlineStr"/>
       <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="inlineStr"/>
-      <c r="AE27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE27" t="inlineStr"/>
+      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="n">
         <v>1</v>
       </c>
-      <c r="AH27" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH27" t="inlineStr"/>
       <c r="AI27" t="inlineStr"/>
-      <c r="AJ27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ27" t="inlineStr"/>
+      <c r="AK27" t="inlineStr"/>
+      <c r="AL27" t="inlineStr"/>
       <c r="AM27" t="inlineStr"/>
       <c r="AN27" t="inlineStr"/>
       <c r="AO27" t="inlineStr"/>
-      <c r="AP27" t="n">
-        <v>1</v>
-      </c>
+      <c r="AP27" t="inlineStr"/>
       <c r="AQ27" t="inlineStr"/>
-      <c r="AR27" t="n">
-        <v>1</v>
-      </c>
+      <c r="AR27" t="inlineStr"/>
       <c r="AS27" t="inlineStr"/>
       <c r="AT27" t="inlineStr"/>
       <c r="AU27" t="inlineStr"/>
       <c r="AV27" t="inlineStr"/>
-      <c r="AW27" t="n">
-        <v>1</v>
-      </c>
+      <c r="AW27" t="inlineStr"/>
       <c r="AX27" t="inlineStr"/>
-      <c r="AY27" t="n">
-        <v>1</v>
-      </c>
+      <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
@@ -2474,7 +2578,9 @@
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -2486,13 +2592,13 @@
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
-        <v>1</v>
-      </c>
+      <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
+      <c r="W28" t="n">
+        <v>1</v>
+      </c>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr"/>
@@ -2510,9 +2616,7 @@
       <c r="AL28" t="inlineStr"/>
       <c r="AM28" t="inlineStr"/>
       <c r="AN28" t="inlineStr"/>
-      <c r="AO28" t="n">
-        <v>1</v>
-      </c>
+      <c r="AO28" t="inlineStr"/>
       <c r="AP28" t="inlineStr"/>
       <c r="AQ28" t="inlineStr"/>
       <c r="AR28" t="inlineStr"/>
@@ -2527,82 +2631,56 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
-      <c r="C29" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" t="n">
-        <v>1</v>
-      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>1</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="n">
-        <v>1</v>
-      </c>
+      <c r="O29" t="n">
+        <v>1</v>
+      </c>
+      <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
-        <v>1</v>
-      </c>
+      <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
-      <c r="U29" t="n">
-        <v>1</v>
-      </c>
+      <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="n">
-        <v>1</v>
-      </c>
+      <c r="W29" t="n">
+        <v>1</v>
+      </c>
+      <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="inlineStr"/>
-      <c r="AB29" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB29" t="inlineStr"/>
       <c r="AC29" t="inlineStr"/>
       <c r="AD29" t="inlineStr"/>
-      <c r="AE29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF29" t="inlineStr"/>
+      <c r="AE29" t="inlineStr"/>
+      <c r="AF29" t="n">
+        <v>1</v>
+      </c>
       <c r="AG29" t="n">
         <v>1</v>
       </c>
-      <c r="AH29" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH29" t="inlineStr"/>
       <c r="AI29" t="inlineStr"/>
-      <c r="AJ29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ29" t="inlineStr"/>
+      <c r="AK29" t="inlineStr"/>
+      <c r="AL29" t="inlineStr"/>
       <c r="AM29" t="inlineStr"/>
       <c r="AN29" t="inlineStr"/>
       <c r="AO29" t="inlineStr"/>
@@ -2610,34 +2688,32 @@
       <c r="AQ29" t="inlineStr"/>
       <c r="AR29" t="inlineStr"/>
       <c r="AS29" t="inlineStr"/>
-      <c r="AT29" t="n">
-        <v>1</v>
-      </c>
+      <c r="AT29" t="inlineStr"/>
       <c r="AU29" t="inlineStr"/>
-      <c r="AV29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW29" t="n">
-        <v>1</v>
-      </c>
+      <c r="AV29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr"/>
       <c r="AX29" t="inlineStr"/>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
@@ -2665,23 +2741,17 @@
       <c r="AI30" t="inlineStr"/>
       <c r="AJ30" t="inlineStr"/>
       <c r="AK30" t="inlineStr"/>
-      <c r="AL30" t="n">
-        <v>1</v>
-      </c>
+      <c r="AL30" t="inlineStr"/>
       <c r="AM30" t="inlineStr"/>
       <c r="AN30" t="inlineStr"/>
       <c r="AO30" t="inlineStr"/>
       <c r="AP30" t="inlineStr"/>
       <c r="AQ30" t="inlineStr"/>
-      <c r="AR30" t="n">
-        <v>1</v>
-      </c>
+      <c r="AR30" t="inlineStr"/>
       <c r="AS30" t="inlineStr"/>
       <c r="AT30" t="inlineStr"/>
       <c r="AU30" t="inlineStr"/>
-      <c r="AV30" t="n">
-        <v>1</v>
-      </c>
+      <c r="AV30" t="inlineStr"/>
       <c r="AW30" t="inlineStr"/>
       <c r="AX30" t="inlineStr"/>
       <c r="AY30" t="inlineStr"/>
@@ -2689,14 +2759,16 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
@@ -2719,7 +2791,9 @@
       <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="inlineStr"/>
       <c r="AB31" t="inlineStr"/>
-      <c r="AC31" t="inlineStr"/>
+      <c r="AC31" t="n">
+        <v>1</v>
+      </c>
       <c r="AD31" t="inlineStr"/>
       <c r="AE31" t="inlineStr"/>
       <c r="AF31" t="inlineStr"/>
@@ -2728,16 +2802,16 @@
       <c r="AI31" t="inlineStr"/>
       <c r="AJ31" t="inlineStr"/>
       <c r="AK31" t="inlineStr"/>
-      <c r="AL31" t="n">
-        <v>1</v>
-      </c>
+      <c r="AL31" t="inlineStr"/>
       <c r="AM31" t="inlineStr"/>
       <c r="AN31" t="inlineStr"/>
       <c r="AO31" t="inlineStr"/>
       <c r="AP31" t="inlineStr"/>
       <c r="AQ31" t="inlineStr"/>
       <c r="AR31" t="inlineStr"/>
-      <c r="AS31" t="inlineStr"/>
+      <c r="AS31" t="n">
+        <v>1</v>
+      </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AU31" t="inlineStr"/>
       <c r="AV31" t="inlineStr"/>
@@ -2748,104 +2822,176 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr"/>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
       <c r="C32" t="n">
         <v>1</v>
       </c>
-      <c r="D32" t="inlineStr"/>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>1</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1</v>
+      </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
+      <c r="S32" t="n">
+        <v>1</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1</v>
+      </c>
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
+      <c r="Y32" t="n">
+        <v>1</v>
+      </c>
       <c r="Z32" t="inlineStr"/>
-      <c r="AA32" t="inlineStr"/>
+      <c r="AA32" t="n">
+        <v>1</v>
+      </c>
       <c r="AB32" t="inlineStr"/>
       <c r="AC32" t="inlineStr"/>
       <c r="AD32" t="inlineStr"/>
-      <c r="AE32" t="inlineStr"/>
+      <c r="AE32" t="n">
+        <v>1</v>
+      </c>
       <c r="AF32" t="inlineStr"/>
-      <c r="AG32" t="inlineStr"/>
-      <c r="AH32" t="inlineStr"/>
+      <c r="AG32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>1</v>
+      </c>
       <c r="AI32" t="inlineStr"/>
       <c r="AJ32" t="inlineStr"/>
       <c r="AK32" t="inlineStr"/>
       <c r="AL32" t="inlineStr"/>
-      <c r="AM32" t="inlineStr"/>
+      <c r="AM32" t="n">
+        <v>1</v>
+      </c>
       <c r="AN32" t="inlineStr"/>
-      <c r="AO32" t="inlineStr"/>
-      <c r="AP32" t="inlineStr"/>
-      <c r="AQ32" t="inlineStr"/>
-      <c r="AR32" t="inlineStr"/>
-      <c r="AS32" t="inlineStr"/>
+      <c r="AO32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>1</v>
+      </c>
       <c r="AT32" t="inlineStr"/>
-      <c r="AU32" t="inlineStr"/>
+      <c r="AU32" t="n">
+        <v>1</v>
+      </c>
       <c r="AV32" t="inlineStr"/>
       <c r="AW32" t="inlineStr"/>
-      <c r="AX32" t="inlineStr"/>
+      <c r="AX32" t="n">
+        <v>1</v>
+      </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
+      <c r="T33" t="n">
+        <v>1</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1</v>
+      </c>
       <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
+      <c r="Y33" t="n">
+        <v>1</v>
+      </c>
       <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="inlineStr"/>
-      <c r="AB33" t="inlineStr"/>
+      <c r="AB33" t="n">
+        <v>1</v>
+      </c>
       <c r="AC33" t="inlineStr"/>
       <c r="AD33" t="inlineStr"/>
       <c r="AE33" t="inlineStr"/>
       <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="inlineStr"/>
-      <c r="AH33" t="inlineStr"/>
-      <c r="AI33" t="inlineStr"/>
+      <c r="AH33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ33" t="inlineStr"/>
       <c r="AK33" t="inlineStr"/>
       <c r="AL33" t="n">
@@ -2853,29 +2999,43 @@
       </c>
       <c r="AM33" t="inlineStr"/>
       <c r="AN33" t="inlineStr"/>
-      <c r="AO33" t="inlineStr"/>
+      <c r="AO33" t="n">
+        <v>1</v>
+      </c>
       <c r="AP33" t="inlineStr"/>
-      <c r="AQ33" t="inlineStr"/>
-      <c r="AR33" t="inlineStr"/>
-      <c r="AS33" t="inlineStr"/>
-      <c r="AT33" t="inlineStr"/>
+      <c r="AQ33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>1</v>
+      </c>
       <c r="AU33" t="inlineStr"/>
       <c r="AV33" t="inlineStr"/>
       <c r="AW33" t="inlineStr"/>
-      <c r="AX33" t="inlineStr"/>
+      <c r="AX33" t="n">
+        <v>1</v>
+      </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
@@ -2907,16 +3067,16 @@
       <c r="AI34" t="inlineStr"/>
       <c r="AJ34" t="inlineStr"/>
       <c r="AK34" t="inlineStr"/>
-      <c r="AL34" t="n">
-        <v>1</v>
-      </c>
+      <c r="AL34" t="inlineStr"/>
       <c r="AM34" t="inlineStr"/>
       <c r="AN34" t="inlineStr"/>
       <c r="AO34" t="inlineStr"/>
       <c r="AP34" t="inlineStr"/>
       <c r="AQ34" t="inlineStr"/>
       <c r="AR34" t="inlineStr"/>
-      <c r="AS34" t="inlineStr"/>
+      <c r="AS34" t="n">
+        <v>1</v>
+      </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AU34" t="inlineStr"/>
       <c r="AV34" t="inlineStr"/>
@@ -2927,123 +3087,89 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>1</v>
-      </c>
-      <c r="C35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" t="n">
-        <v>1</v>
-      </c>
-      <c r="E35" t="n">
-        <v>1</v>
-      </c>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>1</v>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
+      <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="n">
-        <v>1</v>
-      </c>
+      <c r="O35" t="n">
+        <v>1</v>
+      </c>
+      <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
-        <v>1</v>
-      </c>
+      <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
-      <c r="U35" t="n">
-        <v>1</v>
-      </c>
+      <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="n">
-        <v>1</v>
-      </c>
+      <c r="W35" t="n">
+        <v>1</v>
+      </c>
+      <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
-      <c r="AB35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB35" t="inlineStr"/>
+      <c r="AC35" t="inlineStr"/>
       <c r="AD35" t="inlineStr"/>
-      <c r="AE35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF35" t="inlineStr"/>
-      <c r="AG35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE35" t="inlineStr"/>
+      <c r="AF35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG35" t="inlineStr"/>
+      <c r="AH35" t="inlineStr"/>
       <c r="AI35" t="inlineStr"/>
-      <c r="AJ35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ35" t="inlineStr"/>
+      <c r="AK35" t="inlineStr"/>
+      <c r="AL35" t="inlineStr"/>
       <c r="AM35" t="inlineStr"/>
       <c r="AN35" t="inlineStr"/>
       <c r="AO35" t="inlineStr"/>
       <c r="AP35" t="inlineStr"/>
       <c r="AQ35" t="inlineStr"/>
-      <c r="AR35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS35" t="n">
-        <v>1</v>
-      </c>
+      <c r="AR35" t="inlineStr"/>
+      <c r="AS35" t="inlineStr"/>
       <c r="AT35" t="inlineStr"/>
       <c r="AU35" t="inlineStr"/>
       <c r="AV35" t="inlineStr"/>
-      <c r="AW35" t="n">
-        <v>1</v>
-      </c>
+      <c r="AW35" t="inlineStr"/>
       <c r="AX35" t="inlineStr"/>
-      <c r="AY35" t="n">
-        <v>1</v>
-      </c>
+      <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
@@ -3066,28 +3192,26 @@
       <c r="AD36" t="inlineStr"/>
       <c r="AE36" t="inlineStr"/>
       <c r="AF36" t="inlineStr"/>
-      <c r="AG36" t="inlineStr"/>
+      <c r="AG36" t="n">
+        <v>1</v>
+      </c>
       <c r="AH36" t="inlineStr"/>
       <c r="AI36" t="inlineStr"/>
       <c r="AJ36" t="inlineStr"/>
       <c r="AK36" t="inlineStr"/>
-      <c r="AL36" t="n">
-        <v>1</v>
-      </c>
+      <c r="AL36" t="inlineStr"/>
       <c r="AM36" t="inlineStr"/>
       <c r="AN36" t="inlineStr"/>
       <c r="AO36" t="inlineStr"/>
       <c r="AP36" t="inlineStr"/>
       <c r="AQ36" t="inlineStr"/>
-      <c r="AR36" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS36" t="inlineStr"/>
+      <c r="AR36" t="inlineStr"/>
+      <c r="AS36" t="n">
+        <v>1</v>
+      </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AU36" t="inlineStr"/>
-      <c r="AV36" t="n">
-        <v>1</v>
-      </c>
+      <c r="AV36" t="inlineStr"/>
       <c r="AW36" t="inlineStr"/>
       <c r="AX36" t="inlineStr"/>
       <c r="AY36" t="inlineStr"/>
@@ -3095,14 +3219,16 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
@@ -3129,7 +3255,9 @@
       <c r="AD37" t="inlineStr"/>
       <c r="AE37" t="inlineStr"/>
       <c r="AF37" t="inlineStr"/>
-      <c r="AG37" t="inlineStr"/>
+      <c r="AG37" t="n">
+        <v>1</v>
+      </c>
       <c r="AH37" t="inlineStr"/>
       <c r="AI37" t="inlineStr"/>
       <c r="AJ37" t="inlineStr"/>
@@ -3152,14 +3280,16 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>43</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
@@ -3172,9 +3302,7 @@
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
-        <v>1</v>
-      </c>
+      <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
@@ -3187,9 +3315,7 @@
       <c r="AC38" t="inlineStr"/>
       <c r="AD38" t="inlineStr"/>
       <c r="AE38" t="inlineStr"/>
-      <c r="AF38" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="inlineStr"/>
       <c r="AH38" t="inlineStr"/>
       <c r="AI38" t="inlineStr"/>
@@ -3198,33 +3324,33 @@
       <c r="AL38" t="inlineStr"/>
       <c r="AM38" t="inlineStr"/>
       <c r="AN38" t="inlineStr"/>
-      <c r="AO38" t="n">
-        <v>1</v>
-      </c>
+      <c r="AO38" t="inlineStr"/>
       <c r="AP38" t="inlineStr"/>
       <c r="AQ38" t="inlineStr"/>
       <c r="AR38" t="inlineStr"/>
-      <c r="AS38" t="inlineStr"/>
+      <c r="AS38" t="n">
+        <v>1</v>
+      </c>
       <c r="AT38" t="inlineStr"/>
       <c r="AU38" t="inlineStr"/>
       <c r="AV38" t="inlineStr"/>
-      <c r="AW38" t="n">
-        <v>1</v>
-      </c>
+      <c r="AW38" t="inlineStr"/>
       <c r="AX38" t="inlineStr"/>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>46</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
@@ -3237,9 +3363,7 @@
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
-        <v>1</v>
-      </c>
+      <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr"/>
@@ -3261,13 +3385,13 @@
       <c r="AL39" t="inlineStr"/>
       <c r="AM39" t="inlineStr"/>
       <c r="AN39" t="inlineStr"/>
-      <c r="AO39" t="n">
-        <v>1</v>
-      </c>
+      <c r="AO39" t="inlineStr"/>
       <c r="AP39" t="inlineStr"/>
       <c r="AQ39" t="inlineStr"/>
       <c r="AR39" t="inlineStr"/>
-      <c r="AS39" t="inlineStr"/>
+      <c r="AS39" t="n">
+        <v>1</v>
+      </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AU39" t="inlineStr"/>
       <c r="AV39" t="inlineStr"/>
@@ -3278,14 +3402,16 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
@@ -3317,9 +3443,7 @@
       <c r="AI40" t="inlineStr"/>
       <c r="AJ40" t="inlineStr"/>
       <c r="AK40" t="inlineStr"/>
-      <c r="AL40" t="n">
-        <v>1</v>
-      </c>
+      <c r="AL40" t="inlineStr"/>
       <c r="AM40" t="inlineStr"/>
       <c r="AN40" t="inlineStr"/>
       <c r="AO40" t="inlineStr"/>
@@ -3329,9 +3453,7 @@
       <c r="AS40" t="inlineStr"/>
       <c r="AT40" t="inlineStr"/>
       <c r="AU40" t="inlineStr"/>
-      <c r="AV40" t="n">
-        <v>1</v>
-      </c>
+      <c r="AV40" t="inlineStr"/>
       <c r="AW40" t="inlineStr"/>
       <c r="AX40" t="inlineStr"/>
       <c r="AY40" t="inlineStr"/>
@@ -3339,14 +3461,16 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>48</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>1</v>
+      </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
@@ -3373,21 +3497,23 @@
       <c r="AD41" t="inlineStr"/>
       <c r="AE41" t="inlineStr"/>
       <c r="AF41" t="inlineStr"/>
-      <c r="AG41" t="inlineStr"/>
+      <c r="AG41" t="n">
+        <v>1</v>
+      </c>
       <c r="AH41" t="inlineStr"/>
       <c r="AI41" t="inlineStr"/>
       <c r="AJ41" t="inlineStr"/>
       <c r="AK41" t="inlineStr"/>
-      <c r="AL41" t="n">
-        <v>1</v>
-      </c>
+      <c r="AL41" t="inlineStr"/>
       <c r="AM41" t="inlineStr"/>
       <c r="AN41" t="inlineStr"/>
       <c r="AO41" t="inlineStr"/>
       <c r="AP41" t="inlineStr"/>
       <c r="AQ41" t="inlineStr"/>
       <c r="AR41" t="inlineStr"/>
-      <c r="AS41" t="inlineStr"/>
+      <c r="AS41" t="n">
+        <v>1</v>
+      </c>
       <c r="AT41" t="inlineStr"/>
       <c r="AU41" t="inlineStr"/>
       <c r="AV41" t="inlineStr"/>
@@ -3398,119 +3524,85 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
-      <c r="D42" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" t="n">
-        <v>1</v>
-      </c>
-      <c r="F42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="n">
+        <v>1</v>
+      </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>1</v>
-      </c>
-      <c r="K42" t="n">
-        <v>1</v>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
-      <c r="P42" t="n">
-        <v>1</v>
-      </c>
+      <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
-      <c r="U42" t="n">
-        <v>1</v>
-      </c>
+      <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr"/>
       <c r="W42" t="inlineStr"/>
-      <c r="X42" t="n">
-        <v>1</v>
-      </c>
+      <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z42" t="inlineStr"/>
       <c r="AA42" t="inlineStr"/>
-      <c r="AB42" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB42" t="inlineStr"/>
       <c r="AC42" t="inlineStr"/>
       <c r="AD42" t="inlineStr"/>
-      <c r="AE42" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE42" t="inlineStr"/>
       <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="n">
         <v>1</v>
       </c>
-      <c r="AH42" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH42" t="inlineStr"/>
       <c r="AI42" t="inlineStr"/>
-      <c r="AJ42" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ42" t="inlineStr"/>
+      <c r="AK42" t="inlineStr"/>
+      <c r="AL42" t="inlineStr"/>
       <c r="AM42" t="inlineStr"/>
-      <c r="AN42" t="n">
-        <v>1</v>
-      </c>
+      <c r="AN42" t="inlineStr"/>
       <c r="AO42" t="inlineStr"/>
       <c r="AP42" t="inlineStr"/>
       <c r="AQ42" t="inlineStr"/>
-      <c r="AR42" t="n">
-        <v>1</v>
-      </c>
+      <c r="AR42" t="inlineStr"/>
       <c r="AS42" t="inlineStr"/>
-      <c r="AT42" t="n">
-        <v>1</v>
-      </c>
+      <c r="AT42" t="inlineStr"/>
       <c r="AU42" t="inlineStr"/>
-      <c r="AV42" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW42" t="n">
-        <v>1</v>
-      </c>
+      <c r="AV42" t="inlineStr"/>
+      <c r="AW42" t="inlineStr"/>
       <c r="AX42" t="inlineStr"/>
       <c r="AY42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
+      <c r="F43" t="n">
+        <v>1</v>
+      </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
@@ -3529,11 +3621,15 @@
       <c r="Z43" t="inlineStr"/>
       <c r="AA43" t="inlineStr"/>
       <c r="AB43" t="inlineStr"/>
-      <c r="AC43" t="inlineStr"/>
+      <c r="AC43" t="n">
+        <v>1</v>
+      </c>
       <c r="AD43" t="inlineStr"/>
       <c r="AE43" t="inlineStr"/>
       <c r="AF43" t="inlineStr"/>
-      <c r="AG43" t="inlineStr"/>
+      <c r="AG43" t="n">
+        <v>1</v>
+      </c>
       <c r="AH43" t="inlineStr"/>
       <c r="AI43" t="inlineStr"/>
       <c r="AJ43" t="inlineStr"/>
@@ -3556,18 +3652,22 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>52</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
+      <c r="F44" t="n">
+        <v>1</v>
+      </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
@@ -3590,7 +3690,9 @@
       <c r="AD44" t="inlineStr"/>
       <c r="AE44" t="inlineStr"/>
       <c r="AF44" t="inlineStr"/>
-      <c r="AG44" t="inlineStr"/>
+      <c r="AG44" t="n">
+        <v>1</v>
+      </c>
       <c r="AH44" t="inlineStr"/>
       <c r="AI44" t="inlineStr"/>
       <c r="AJ44" t="inlineStr"/>
@@ -3602,7 +3704,9 @@
       <c r="AP44" t="inlineStr"/>
       <c r="AQ44" t="inlineStr"/>
       <c r="AR44" t="inlineStr"/>
-      <c r="AS44" t="inlineStr"/>
+      <c r="AS44" t="n">
+        <v>1</v>
+      </c>
       <c r="AT44" t="inlineStr"/>
       <c r="AU44" t="inlineStr"/>
       <c r="AV44" t="inlineStr"/>
@@ -3613,7 +3717,7 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>53</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
@@ -3637,9 +3741,7 @@
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr"/>
-      <c r="W45" t="n">
-        <v>1</v>
-      </c>
+      <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr"/>
@@ -3654,9 +3756,7 @@
       <c r="AI45" t="inlineStr"/>
       <c r="AJ45" t="inlineStr"/>
       <c r="AK45" t="inlineStr"/>
-      <c r="AL45" t="n">
-        <v>1</v>
-      </c>
+      <c r="AL45" t="inlineStr"/>
       <c r="AM45" t="inlineStr"/>
       <c r="AN45" t="inlineStr"/>
       <c r="AO45" t="inlineStr"/>
@@ -3666,9 +3766,7 @@
       <c r="AS45" t="inlineStr"/>
       <c r="AT45" t="inlineStr"/>
       <c r="AU45" t="inlineStr"/>
-      <c r="AV45" t="n">
-        <v>1</v>
-      </c>
+      <c r="AV45" t="inlineStr"/>
       <c r="AW45" t="inlineStr"/>
       <c r="AX45" t="inlineStr"/>
       <c r="AY45" t="inlineStr"/>
@@ -3676,14 +3774,16 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>55</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
+      <c r="F46" t="n">
+        <v>1</v>
+      </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
@@ -3710,21 +3810,23 @@
       <c r="AD46" t="inlineStr"/>
       <c r="AE46" t="inlineStr"/>
       <c r="AF46" t="inlineStr"/>
-      <c r="AG46" t="inlineStr"/>
+      <c r="AG46" t="n">
+        <v>1</v>
+      </c>
       <c r="AH46" t="inlineStr"/>
       <c r="AI46" t="inlineStr"/>
       <c r="AJ46" t="inlineStr"/>
       <c r="AK46" t="inlineStr"/>
-      <c r="AL46" t="n">
-        <v>1</v>
-      </c>
+      <c r="AL46" t="inlineStr"/>
       <c r="AM46" t="inlineStr"/>
       <c r="AN46" t="inlineStr"/>
       <c r="AO46" t="inlineStr"/>
       <c r="AP46" t="inlineStr"/>
       <c r="AQ46" t="inlineStr"/>
       <c r="AR46" t="inlineStr"/>
-      <c r="AS46" t="inlineStr"/>
+      <c r="AS46" t="n">
+        <v>1</v>
+      </c>
       <c r="AT46" t="inlineStr"/>
       <c r="AU46" t="inlineStr"/>
       <c r="AV46" t="inlineStr"/>
@@ -3735,14 +3837,16 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>56</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
+      <c r="F47" t="n">
+        <v>1</v>
+      </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
@@ -3777,50 +3881,72 @@
       <c r="AL47" t="inlineStr"/>
       <c r="AM47" t="inlineStr"/>
       <c r="AN47" t="inlineStr"/>
-      <c r="AO47" t="n">
-        <v>1</v>
-      </c>
+      <c r="AO47" t="inlineStr"/>
       <c r="AP47" t="inlineStr"/>
       <c r="AQ47" t="inlineStr"/>
       <c r="AR47" t="inlineStr"/>
-      <c r="AS47" t="inlineStr"/>
+      <c r="AS47" t="n">
+        <v>1</v>
+      </c>
       <c r="AT47" t="inlineStr"/>
       <c r="AU47" t="inlineStr"/>
       <c r="AV47" t="inlineStr"/>
-      <c r="AW47" t="n">
-        <v>1</v>
-      </c>
+      <c r="AW47" t="inlineStr"/>
       <c r="AX47" t="inlineStr"/>
       <c r="AY47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
+      <c r="F48" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
       <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
+      <c r="O48" t="n">
+        <v>1</v>
+      </c>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr"/>
-      <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr"/>
+      <c r="S48" t="n">
+        <v>1</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1</v>
+      </c>
+      <c r="U48" t="n">
+        <v>1</v>
+      </c>
+      <c r="V48" t="n">
+        <v>1</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1</v>
+      </c>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr"/>
@@ -3830,261 +3956,317 @@
       <c r="AD48" t="inlineStr"/>
       <c r="AE48" t="inlineStr"/>
       <c r="AF48" t="inlineStr"/>
-      <c r="AG48" t="inlineStr"/>
-      <c r="AH48" t="inlineStr"/>
-      <c r="AI48" t="inlineStr"/>
+      <c r="AG48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ48" t="inlineStr"/>
       <c r="AK48" t="inlineStr"/>
       <c r="AL48" t="inlineStr"/>
       <c r="AM48" t="inlineStr"/>
       <c r="AN48" t="inlineStr"/>
       <c r="AO48" t="inlineStr"/>
-      <c r="AP48" t="inlineStr"/>
+      <c r="AP48" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ48" t="inlineStr"/>
-      <c r="AR48" t="inlineStr"/>
+      <c r="AR48" t="n">
+        <v>1</v>
+      </c>
       <c r="AS48" t="inlineStr"/>
-      <c r="AT48" t="inlineStr"/>
+      <c r="AT48" t="n">
+        <v>1</v>
+      </c>
       <c r="AU48" t="inlineStr"/>
       <c r="AV48" t="inlineStr"/>
       <c r="AW48" t="inlineStr"/>
-      <c r="AX48" t="inlineStr"/>
+      <c r="AX48" t="n">
+        <v>1</v>
+      </c>
       <c r="AY48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
+      <c r="F49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1</v>
+      </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
+      <c r="P49" t="n">
+        <v>1</v>
+      </c>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
+      <c r="S49" t="n">
+        <v>1</v>
+      </c>
       <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr"/>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" t="n">
+        <v>1</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1</v>
+      </c>
       <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr"/>
+      <c r="Y49" t="n">
+        <v>1</v>
+      </c>
       <c r="Z49" t="inlineStr"/>
-      <c r="AA49" t="inlineStr"/>
+      <c r="AA49" t="n">
+        <v>1</v>
+      </c>
       <c r="AB49" t="inlineStr"/>
       <c r="AC49" t="inlineStr"/>
       <c r="AD49" t="inlineStr"/>
-      <c r="AE49" t="inlineStr"/>
-      <c r="AF49" t="inlineStr"/>
+      <c r="AE49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>1</v>
+      </c>
       <c r="AG49" t="inlineStr"/>
-      <c r="AH49" t="inlineStr"/>
-      <c r="AI49" t="inlineStr"/>
-      <c r="AJ49" t="inlineStr"/>
+      <c r="AH49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>1</v>
+      </c>
       <c r="AK49" t="inlineStr"/>
-      <c r="AL49" t="n">
-        <v>1</v>
-      </c>
+      <c r="AL49" t="inlineStr"/>
       <c r="AM49" t="inlineStr"/>
       <c r="AN49" t="inlineStr"/>
-      <c r="AO49" t="inlineStr"/>
-      <c r="AP49" t="inlineStr"/>
-      <c r="AQ49" t="inlineStr"/>
-      <c r="AR49" t="inlineStr"/>
-      <c r="AS49" t="inlineStr"/>
-      <c r="AT49" t="inlineStr"/>
+      <c r="AO49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>1</v>
+      </c>
       <c r="AU49" t="inlineStr"/>
-      <c r="AV49" t="n">
-        <v>1</v>
-      </c>
+      <c r="AV49" t="inlineStr"/>
       <c r="AW49" t="inlineStr"/>
-      <c r="AX49" t="inlineStr"/>
+      <c r="AX49" t="n">
+        <v>1</v>
+      </c>
       <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>1</v>
-      </c>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
-      <c r="D50" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" t="n">
-        <v>1</v>
-      </c>
-      <c r="F50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="n">
+        <v>1</v>
+      </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>1</v>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
-      <c r="P50" t="n">
-        <v>1</v>
-      </c>
+      <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
-        <v>1</v>
-      </c>
-      <c r="T50" t="n">
-        <v>1</v>
-      </c>
-      <c r="U50" t="n">
-        <v>1</v>
-      </c>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr"/>
       <c r="W50" t="inlineStr"/>
-      <c r="X50" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z50" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA50" t="n">
-        <v>1</v>
-      </c>
+      <c r="X50" t="inlineStr"/>
+      <c r="Y50" t="inlineStr"/>
+      <c r="Z50" t="inlineStr"/>
+      <c r="AA50" t="inlineStr"/>
       <c r="AB50" t="inlineStr"/>
-      <c r="AC50" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC50" t="inlineStr"/>
       <c r="AD50" t="inlineStr"/>
-      <c r="AE50" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE50" t="inlineStr"/>
       <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="n">
         <v>1</v>
       </c>
-      <c r="AH50" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH50" t="inlineStr"/>
       <c r="AI50" t="inlineStr"/>
-      <c r="AJ50" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK50" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL50" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ50" t="inlineStr"/>
+      <c r="AK50" t="inlineStr"/>
+      <c r="AL50" t="inlineStr"/>
       <c r="AM50" t="inlineStr"/>
       <c r="AN50" t="inlineStr"/>
-      <c r="AO50" t="n">
-        <v>1</v>
-      </c>
+      <c r="AO50" t="inlineStr"/>
       <c r="AP50" t="inlineStr"/>
       <c r="AQ50" t="inlineStr"/>
-      <c r="AR50" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS50" t="inlineStr"/>
-      <c r="AT50" t="n">
-        <v>1</v>
-      </c>
+      <c r="AR50" t="inlineStr"/>
+      <c r="AS50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT50" t="inlineStr"/>
       <c r="AU50" t="inlineStr"/>
-      <c r="AV50" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW50" t="n">
-        <v>1</v>
-      </c>
+      <c r="AV50" t="inlineStr"/>
+      <c r="AW50" t="inlineStr"/>
       <c r="AX50" t="inlineStr"/>
       <c r="AY50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
+      <c r="F51" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
-      <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr"/>
+      <c r="S51" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" t="n">
+        <v>1</v>
+      </c>
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" t="n">
+        <v>1</v>
+      </c>
+      <c r="W51" t="n">
+        <v>1</v>
+      </c>
       <c r="X51" t="inlineStr"/>
-      <c r="Y51" t="inlineStr"/>
+      <c r="Y51" t="n">
+        <v>1</v>
+      </c>
       <c r="Z51" t="inlineStr"/>
-      <c r="AA51" t="inlineStr"/>
+      <c r="AA51" t="n">
+        <v>1</v>
+      </c>
       <c r="AB51" t="inlineStr"/>
       <c r="AC51" t="inlineStr"/>
       <c r="AD51" t="inlineStr"/>
-      <c r="AE51" t="inlineStr"/>
+      <c r="AE51" t="n">
+        <v>1</v>
+      </c>
       <c r="AF51" t="inlineStr"/>
-      <c r="AG51" t="inlineStr"/>
-      <c r="AH51" t="inlineStr"/>
+      <c r="AG51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>1</v>
+      </c>
       <c r="AI51" t="inlineStr"/>
       <c r="AJ51" t="inlineStr"/>
       <c r="AK51" t="inlineStr"/>
-      <c r="AL51" t="n">
-        <v>1</v>
-      </c>
+      <c r="AL51" t="inlineStr"/>
       <c r="AM51" t="inlineStr"/>
       <c r="AN51" t="inlineStr"/>
-      <c r="AO51" t="inlineStr"/>
-      <c r="AP51" t="inlineStr"/>
+      <c r="AO51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ51" t="inlineStr"/>
       <c r="AR51" t="n">
         <v>1</v>
       </c>
-      <c r="AS51" t="inlineStr"/>
-      <c r="AT51" t="inlineStr"/>
-      <c r="AU51" t="inlineStr"/>
+      <c r="AS51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>1</v>
+      </c>
       <c r="AV51" t="inlineStr"/>
       <c r="AW51" t="inlineStr"/>
-      <c r="AX51" t="inlineStr"/>
+      <c r="AX51" t="n">
+        <v>1</v>
+      </c>
       <c r="AY51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>62</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -4096,35 +4278,35 @@
       <c r="D52" t="n">
         <v>1</v>
       </c>
-      <c r="E52" t="n">
-        <v>1</v>
-      </c>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1</v>
+      </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>1</v>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
       <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
+      <c r="O52" t="n">
+        <v>1</v>
+      </c>
       <c r="P52" t="n">
         <v>1</v>
       </c>
-      <c r="Q52" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q52" t="inlineStr"/>
       <c r="R52" t="n">
         <v>1</v>
       </c>
-      <c r="S52" t="inlineStr"/>
+      <c r="S52" t="n">
+        <v>1</v>
+      </c>
       <c r="T52" t="n">
         <v>1</v>
       </c>
@@ -4132,122 +4314,122 @@
         <v>1</v>
       </c>
       <c r="V52" t="inlineStr"/>
-      <c r="W52" t="inlineStr"/>
-      <c r="X52" t="n">
-        <v>1</v>
-      </c>
+      <c r="W52" t="n">
+        <v>1</v>
+      </c>
+      <c r="X52" t="inlineStr"/>
       <c r="Y52" t="n">
         <v>1</v>
       </c>
-      <c r="Z52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA52" t="inlineStr"/>
+      <c r="Z52" t="inlineStr"/>
+      <c r="AA52" t="n">
+        <v>1</v>
+      </c>
       <c r="AB52" t="inlineStr"/>
-      <c r="AC52" t="inlineStr"/>
+      <c r="AC52" t="n">
+        <v>1</v>
+      </c>
       <c r="AD52" t="inlineStr"/>
       <c r="AE52" t="n">
         <v>1</v>
       </c>
       <c r="AF52" t="inlineStr"/>
-      <c r="AG52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH52" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG52" t="inlineStr"/>
+      <c r="AH52" t="inlineStr"/>
       <c r="AI52" t="inlineStr"/>
-      <c r="AJ52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK52" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ52" t="inlineStr"/>
+      <c r="AK52" t="inlineStr"/>
       <c r="AL52" t="n">
         <v>1</v>
       </c>
-      <c r="AM52" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM52" t="inlineStr"/>
       <c r="AN52" t="inlineStr"/>
-      <c r="AO52" t="inlineStr"/>
-      <c r="AP52" t="inlineStr"/>
-      <c r="AQ52" t="inlineStr"/>
-      <c r="AR52" t="inlineStr"/>
-      <c r="AS52" t="inlineStr"/>
-      <c r="AT52" t="n">
-        <v>1</v>
-      </c>
+      <c r="AO52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT52" t="inlineStr"/>
       <c r="AU52" t="inlineStr"/>
-      <c r="AV52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX52" t="inlineStr"/>
+      <c r="AV52" t="inlineStr"/>
+      <c r="AW52" t="inlineStr"/>
+      <c r="AX52" t="n">
+        <v>1</v>
+      </c>
       <c r="AY52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>63</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>1</v>
       </c>
-      <c r="C53" t="inlineStr"/>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
       <c r="D53" t="n">
         <v>1</v>
       </c>
-      <c r="E53" t="n">
-        <v>1</v>
-      </c>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
         <v>1</v>
       </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="n">
-        <v>1</v>
-      </c>
+      <c r="N53" t="n">
+        <v>1</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1</v>
+      </c>
+      <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
+      <c r="R53" t="n">
+        <v>1</v>
+      </c>
       <c r="S53" t="n">
         <v>1</v>
       </c>
-      <c r="T53" t="n">
-        <v>1</v>
-      </c>
+      <c r="T53" t="inlineStr"/>
       <c r="U53" t="n">
         <v>1</v>
       </c>
       <c r="V53" t="inlineStr"/>
       <c r="W53" t="inlineStr"/>
-      <c r="X53" t="n">
-        <v>1</v>
-      </c>
+      <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
-      <c r="Z53" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z53" t="inlineStr"/>
       <c r="AA53" t="inlineStr"/>
-      <c r="AB53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC53" t="inlineStr"/>
+      <c r="AB53" t="inlineStr"/>
+      <c r="AC53" t="n">
+        <v>1</v>
+      </c>
       <c r="AD53" t="inlineStr"/>
       <c r="AE53" t="n">
         <v>1</v>
@@ -4259,40 +4441,48 @@
       <c r="AH53" t="n">
         <v>1</v>
       </c>
-      <c r="AI53" t="inlineStr"/>
-      <c r="AJ53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK53" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ53" t="inlineStr"/>
+      <c r="AK53" t="inlineStr"/>
       <c r="AL53" t="n">
         <v>1</v>
       </c>
       <c r="AM53" t="inlineStr"/>
-      <c r="AN53" t="inlineStr"/>
+      <c r="AN53" t="n">
+        <v>1</v>
+      </c>
       <c r="AO53" t="n">
         <v>1</v>
       </c>
-      <c r="AP53" t="inlineStr"/>
-      <c r="AQ53" t="inlineStr"/>
-      <c r="AR53" t="inlineStr"/>
-      <c r="AS53" t="inlineStr"/>
+      <c r="AP53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>1</v>
+      </c>
       <c r="AT53" t="inlineStr"/>
-      <c r="AU53" t="inlineStr"/>
+      <c r="AU53" t="n">
+        <v>1</v>
+      </c>
       <c r="AV53" t="inlineStr"/>
-      <c r="AW53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX53" t="inlineStr"/>
-      <c r="AY53" t="n">
-        <v>1</v>
-      </c>
+      <c r="AW53" t="inlineStr"/>
+      <c r="AX53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>64</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -4304,155 +4494,153 @@
       <c r="D54" t="n">
         <v>1</v>
       </c>
-      <c r="E54" t="n">
-        <v>1</v>
-      </c>
+      <c r="E54" t="inlineStr"/>
       <c r="F54" t="n">
         <v>1</v>
       </c>
-      <c r="G54" t="inlineStr"/>
+      <c r="G54" t="n">
+        <v>1</v>
+      </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>1</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="n">
-        <v>1</v>
-      </c>
+      <c r="N54" t="n">
+        <v>1</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1</v>
+      </c>
+      <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
-        <v>1</v>
-      </c>
+      <c r="S54" t="inlineStr"/>
       <c r="T54" t="n">
         <v>1</v>
       </c>
       <c r="U54" t="n">
         <v>1</v>
       </c>
-      <c r="V54" t="inlineStr"/>
+      <c r="V54" t="n">
+        <v>1</v>
+      </c>
       <c r="W54" t="inlineStr"/>
-      <c r="X54" t="n">
-        <v>1</v>
-      </c>
+      <c r="X54" t="inlineStr"/>
       <c r="Y54" t="n">
         <v>1</v>
       </c>
-      <c r="Z54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA54" t="inlineStr"/>
-      <c r="AB54" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z54" t="inlineStr"/>
+      <c r="AA54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB54" t="inlineStr"/>
       <c r="AC54" t="inlineStr"/>
       <c r="AD54" t="inlineStr"/>
-      <c r="AE54" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE54" t="inlineStr"/>
       <c r="AF54" t="inlineStr"/>
-      <c r="AG54" t="inlineStr"/>
+      <c r="AG54" t="n">
+        <v>1</v>
+      </c>
       <c r="AH54" t="n">
         <v>1</v>
       </c>
-      <c r="AI54" t="inlineStr"/>
-      <c r="AJ54" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ54" t="inlineStr"/>
       <c r="AK54" t="n">
         <v>1</v>
       </c>
-      <c r="AL54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN54" t="inlineStr"/>
-      <c r="AO54" t="inlineStr"/>
-      <c r="AP54" t="inlineStr"/>
-      <c r="AQ54" t="inlineStr"/>
+      <c r="AL54" t="inlineStr"/>
+      <c r="AM54" t="inlineStr"/>
+      <c r="AN54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>1</v>
+      </c>
       <c r="AR54" t="n">
         <v>1</v>
       </c>
       <c r="AS54" t="inlineStr"/>
-      <c r="AT54" t="inlineStr"/>
-      <c r="AU54" t="inlineStr"/>
-      <c r="AV54" t="n">
-        <v>1</v>
-      </c>
+      <c r="AT54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV54" t="inlineStr"/>
       <c r="AW54" t="inlineStr"/>
-      <c r="AX54" t="inlineStr"/>
-      <c r="AY54" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>65</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>1</v>
       </c>
-      <c r="C55" t="inlineStr"/>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
       <c r="D55" t="n">
         <v>1</v>
       </c>
-      <c r="E55" t="n">
-        <v>1</v>
-      </c>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1</v>
+      </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
       <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="n">
-        <v>1</v>
-      </c>
+      <c r="O55" t="n">
+        <v>1</v>
+      </c>
+      <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
-        <v>1</v>
-      </c>
-      <c r="T55" t="n">
-        <v>1</v>
-      </c>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr"/>
       <c r="U55" t="n">
         <v>1</v>
       </c>
       <c r="V55" t="inlineStr"/>
-      <c r="W55" t="inlineStr"/>
-      <c r="X55" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y55" t="inlineStr"/>
-      <c r="Z55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA55" t="inlineStr"/>
-      <c r="AB55" t="n">
-        <v>1</v>
-      </c>
+      <c r="W55" t="n">
+        <v>1</v>
+      </c>
+      <c r="X55" t="inlineStr"/>
+      <c r="Y55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z55" t="inlineStr"/>
+      <c r="AA55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB55" t="inlineStr"/>
       <c r="AC55" t="inlineStr"/>
       <c r="AD55" t="inlineStr"/>
       <c r="AE55" t="n">
@@ -4465,46 +4653,44 @@
       <c r="AH55" t="n">
         <v>1</v>
       </c>
-      <c r="AI55" t="inlineStr"/>
-      <c r="AJ55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL55" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ55" t="inlineStr"/>
+      <c r="AK55" t="inlineStr"/>
+      <c r="AL55" t="inlineStr"/>
       <c r="AM55" t="inlineStr"/>
       <c r="AN55" t="inlineStr"/>
       <c r="AO55" t="n">
         <v>1</v>
       </c>
-      <c r="AP55" t="inlineStr"/>
-      <c r="AQ55" t="inlineStr"/>
+      <c r="AP55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>1</v>
+      </c>
       <c r="AR55" t="n">
         <v>1</v>
       </c>
-      <c r="AS55" t="inlineStr"/>
+      <c r="AS55" t="n">
+        <v>1</v>
+      </c>
       <c r="AT55" t="n">
         <v>1</v>
       </c>
       <c r="AU55" t="inlineStr"/>
-      <c r="AV55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX55" t="inlineStr"/>
-      <c r="AY55" t="n">
-        <v>1</v>
-      </c>
+      <c r="AV55" t="inlineStr"/>
+      <c r="AW55" t="inlineStr"/>
+      <c r="AX55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>66</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -4516,20 +4702,18 @@
       <c r="D56" t="n">
         <v>1</v>
       </c>
-      <c r="E56" t="n">
-        <v>1</v>
-      </c>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1</v>
+      </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>1</v>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -4541,7 +4725,9 @@
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
-      <c r="T56" t="inlineStr"/>
+      <c r="T56" t="n">
+        <v>1</v>
+      </c>
       <c r="U56" t="n">
         <v>1</v>
       </c>
@@ -4549,25 +4735,19 @@
       <c r="W56" t="n">
         <v>1</v>
       </c>
-      <c r="X56" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y56" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z56" t="n">
-        <v>1</v>
-      </c>
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr"/>
+      <c r="Z56" t="inlineStr"/>
       <c r="AA56" t="inlineStr"/>
-      <c r="AB56" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB56" t="inlineStr"/>
       <c r="AC56" t="inlineStr"/>
       <c r="AD56" t="inlineStr"/>
       <c r="AE56" t="n">
         <v>1</v>
       </c>
-      <c r="AF56" t="inlineStr"/>
+      <c r="AF56" t="n">
+        <v>1</v>
+      </c>
       <c r="AG56" t="n">
         <v>1</v>
       </c>
@@ -4575,37 +4755,37 @@
         <v>1</v>
       </c>
       <c r="AI56" t="inlineStr"/>
-      <c r="AJ56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL56" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ56" t="inlineStr"/>
+      <c r="AK56" t="inlineStr"/>
+      <c r="AL56" t="inlineStr"/>
       <c r="AM56" t="inlineStr"/>
       <c r="AN56" t="inlineStr"/>
       <c r="AO56" t="n">
         <v>1</v>
       </c>
-      <c r="AP56" t="inlineStr"/>
-      <c r="AQ56" t="inlineStr"/>
-      <c r="AR56" t="inlineStr"/>
+      <c r="AP56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>1</v>
+      </c>
       <c r="AS56" t="inlineStr"/>
       <c r="AT56" t="inlineStr"/>
       <c r="AU56" t="inlineStr"/>
       <c r="AV56" t="inlineStr"/>
-      <c r="AW56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX56" t="inlineStr"/>
+      <c r="AW56" t="inlineStr"/>
+      <c r="AX56" t="n">
+        <v>1</v>
+      </c>
       <c r="AY56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>67</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -4617,17 +4797,17 @@
       <c r="D57" t="n">
         <v>1</v>
       </c>
-      <c r="E57" t="n">
-        <v>1</v>
-      </c>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1</v>
+      </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>1</v>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -4635,32 +4815,30 @@
         <v>1</v>
       </c>
       <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="n">
-        <v>1</v>
-      </c>
+      <c r="O57" t="n">
+        <v>1</v>
+      </c>
+      <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
-      <c r="T57" t="inlineStr"/>
+      <c r="T57" t="n">
+        <v>1</v>
+      </c>
       <c r="U57" t="n">
         <v>1</v>
       </c>
       <c r="V57" t="inlineStr"/>
-      <c r="W57" t="inlineStr"/>
-      <c r="X57" t="n">
-        <v>1</v>
-      </c>
+      <c r="W57" t="n">
+        <v>1</v>
+      </c>
+      <c r="X57" t="inlineStr"/>
       <c r="Y57" t="n">
         <v>1</v>
       </c>
-      <c r="Z57" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z57" t="inlineStr"/>
       <c r="AA57" t="inlineStr"/>
-      <c r="AB57" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB57" t="inlineStr"/>
       <c r="AC57" t="inlineStr"/>
       <c r="AD57" t="inlineStr"/>
       <c r="AE57" t="n">
@@ -4674,40 +4852,34 @@
         <v>1</v>
       </c>
       <c r="AI57" t="inlineStr"/>
-      <c r="AJ57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM57" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ57" t="inlineStr"/>
+      <c r="AK57" t="inlineStr"/>
+      <c r="AL57" t="inlineStr"/>
+      <c r="AM57" t="inlineStr"/>
       <c r="AN57" t="inlineStr"/>
       <c r="AO57" t="n">
         <v>1</v>
       </c>
-      <c r="AP57" t="inlineStr"/>
-      <c r="AQ57" t="inlineStr"/>
-      <c r="AR57" t="inlineStr"/>
-      <c r="AS57" t="inlineStr"/>
+      <c r="AP57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>1</v>
+      </c>
       <c r="AT57" t="inlineStr"/>
       <c r="AU57" t="inlineStr"/>
-      <c r="AV57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW57" t="n">
-        <v>1</v>
-      </c>
+      <c r="AV57" t="inlineStr"/>
+      <c r="AW57" t="inlineStr"/>
       <c r="AX57" t="n">
         <v>1</v>
       </c>
-      <c r="AY57" t="n">
-        <v>1</v>
-      </c>
+      <c r="AY57" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4748,7 +4920,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -4757,13 +4929,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -4772,28 +4944,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -4802,28 +4974,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -4832,67 +5004,67 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>18</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
@@ -4903,11 +5075,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13">
@@ -4918,32 +5090,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -4952,58 +5124,58 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>46</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>67</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -5012,13 +5184,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>62</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -5027,13 +5199,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -5042,58 +5214,58 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>32</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -5102,43 +5274,43 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>19</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5147,28 +5319,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>56</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -5177,13 +5349,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -5192,43 +5364,43 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>36</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>40</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -5237,28 +5409,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>63</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5267,58 +5439,58 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>43</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>43</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>46</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5327,13 +5499,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>48</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5342,73 +5514,73 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>52</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>68</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>53</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>55</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -5417,88 +5589,88 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>56</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>57</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>59</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>60</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>64</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>61</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>68</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>62</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -5507,13 +5679,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>61</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>63</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -5528,7 +5700,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>64</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -5537,13 +5709,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>65</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -5552,13 +5724,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>66</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -5567,13 +5739,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>27</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>67</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -5582,7 +5754,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -5624,7 +5796,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -5633,28 +5805,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.3917983264660517</v>
+        <v>0.002399512036428092</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.4861987560010251</v>
+        <v>0.0007574043382774843</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -5663,13 +5835,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.02932905043091669</v>
+        <v>0.0365871297759426</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -5678,43 +5850,43 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.007161952181885822</v>
+        <v>0.975532941615545</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9775491509002114</v>
+        <v>0.01987789825062004</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9908365716207153</v>
+        <v>0.02695706780443438</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -5723,43 +5895,43 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.9777266495619299</v>
+        <v>0.7498976811879142</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.9963295377825083</v>
+        <v>0.9711453657206406</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.7539603307018634</v>
+        <v>0.7661859252547565</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -5768,7 +5940,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.07786892843144269</v>
+        <v>0.986127725819981</v>
       </c>
     </row>
     <row r="12">
@@ -5779,11 +5951,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.04710987173235834</v>
+        <v>0.7891344697591249</v>
       </c>
     </row>
     <row r="13">
@@ -5798,43 +5970,43 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.03255518322969308</v>
+        <v>0.01476494535093317</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.9883491315305963</v>
+        <v>0.5913149568046627</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.9706014755404184</v>
+        <v>0.600632526706567</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -5843,13 +6015,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.03377200165684833</v>
+        <v>0.8613102103120774</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -5858,13 +6030,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.9716489135869047</v>
+        <v>0.9917946918932966</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -5873,28 +6045,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.8873558937136977</v>
+        <v>0.6050157221020659</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.3468049067186354</v>
+        <v>0.5609400405592164</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -5903,13 +6075,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.5976103108323505</v>
+        <v>0.2859994127146426</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -5918,13 +6090,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.04174159789595795</v>
+        <v>0.007539207269551463</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -5933,28 +6105,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.9967523854368935</v>
+        <v>0.5546199008838926</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.8355910300788238</v>
+        <v>0.2322765274854282</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -5963,13 +6135,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.01604281540053896</v>
+        <v>0.9749543254627132</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -5978,13 +6150,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.5697910366110258</v>
+        <v>0.3345263608869645</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5993,13 +6165,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.1316668748420252</v>
+        <v>0.7571981978454604</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -6008,13 +6180,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.9810799146747048</v>
+        <v>0.4757348519169558</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -6023,43 +6195,43 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.2550823799374071</v>
+        <v>0.7955036636014068</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.7352197783608503</v>
+        <v>0.9427985830908588</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.9374063978567347</v>
+        <v>0.9951230024910757</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6068,13 +6240,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.004501647239706408</v>
+        <v>0.3323106338129269</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>36</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6083,28 +6255,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.7996416554570207</v>
+        <v>0.6437830274031436</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.03639003919799797</v>
+        <v>0.4017613857030814</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6113,28 +6285,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.04516195233867486</v>
+        <v>0.01578189338835085</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.9917976361821677</v>
+        <v>0.7091609244843765</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -6143,13 +6315,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.0570014893177913</v>
+        <v>0.9708439707513878</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -6158,28 +6330,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.01116988479339298</v>
+        <v>0.8102175863470851</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>43</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.04454026047194919</v>
+        <v>0.7831410469988018</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>46</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -6188,13 +6360,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.724930964370008</v>
+        <v>0.7892088730854609</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -6203,88 +6375,88 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.8976905370549486</v>
+        <v>0.7780078952005127</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>48</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.3378018518083579</v>
+        <v>0.0153525328359432</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.6413832099515075</v>
+        <v>0.04896301889653254</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.9999461285941079</v>
+        <v>0.1196867361601693</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>52</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.51852890405517</v>
+        <v>0.02947397270246371</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>53</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.9710006495342741</v>
+        <v>0.3387809139307677</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>55</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6293,58 +6465,58 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.8317403906649771</v>
+        <v>0.4951780190816872</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>56</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.9856789367818406</v>
+        <v>0.6016609572132029</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>57</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.5353889792717491</v>
+        <v>0.9314632604151278</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>59</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.2043810694381503</v>
+        <v>0.9730296316258316</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>60</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -6353,13 +6525,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.9304511785797343</v>
+        <v>0.01472798182035181</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>61</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -6368,7 +6540,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.5139400063993642</v>
+        <v>0.9060206064672407</v>
       </c>
     </row>
   </sheetData>
